--- a/NiTiErp/wwwroot/export-files/SucKhoe.xlsx
+++ b/NiTiErp/wwwroot/export-files/SucKhoe.xlsx
@@ -11,12 +11,18 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>POWACO</t>
+  </si>
+  <si>
+    <t>DANH SÁCH NHÂN VIÊN KHÁM SỨC KHỎE</t>
+  </si>
   <si>
     <t>STT</t>
   </si>
@@ -27,65 +33,113 @@
     <t>Phòng</t>
   </si>
   <si>
-    <t>DANH SÁCH NHÂN VIÊN KHÁM SỨC KHỎE</t>
+    <t>Năm sinh</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>Cân nặng</t>
   </si>
   <si>
     <t>Chiều cao</t>
   </si>
   <si>
+    <t>Huyết áp</t>
+  </si>
+  <si>
+    <t>Mắt</t>
+  </si>
+  <si>
+    <t>Tai mũi họng</t>
+  </si>
+  <si>
+    <t>Răng hàm mặt</t>
+  </si>
+  <si>
+    <t>Siêu âm vùng bụng</t>
+  </si>
+  <si>
+    <t>XQ tim phổi</t>
+  </si>
+  <si>
+    <t>Đo điện tim</t>
+  </si>
+  <si>
     <t>Phụ khoa</t>
   </si>
   <si>
+    <t>Phết TB âm đạo</t>
+  </si>
+  <si>
     <t>Công thức máu</t>
   </si>
   <si>
     <t>TPTNT</t>
   </si>
   <si>
-    <t>Giới tính</t>
-  </si>
-  <si>
-    <t>Năm sinh</t>
-  </si>
-  <si>
-    <t>Cân nặng</t>
-  </si>
-  <si>
-    <t>Huyết áp</t>
-  </si>
-  <si>
-    <t>Mắt</t>
-  </si>
-  <si>
-    <t>Tai mũi họng</t>
-  </si>
-  <si>
-    <t>Răng hàm mặt</t>
-  </si>
-  <si>
-    <t>Siêu âm vùng bụng</t>
-  </si>
-  <si>
-    <t>XQ tim phổi</t>
-  </si>
-  <si>
-    <t>Đo điện tim</t>
-  </si>
-  <si>
-    <t>Phết TB âm đạo</t>
-  </si>
-  <si>
     <t>Gluco đường</t>
   </si>
   <si>
     <t>Nhóm máu</t>
   </si>
   <si>
+    <t xml:space="preserve">Phân loại
+ sức khỏe</t>
+  </si>
+  <si>
     <t>Hướng điều trị</t>
   </si>
   <si>
-    <t>Phân loại
- sức khỏe</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Lê Minh Hoàng Kim</t>
+  </si>
+  <si>
+    <t>Phòng An Toàn</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Loại 1</t>
+  </si>
+  <si>
+    <t>Nguyễn hoàng555555555</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Loại 2</t>
+  </si>
+  <si>
+    <t>An Giang, ngày …… tháng ….. năm 20….</t>
+  </si>
+  <si>
+    <t>Người lập</t>
   </si>
 </sst>
 </file>
@@ -96,7 +150,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -125,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -133,6 +187,214 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -142,30 +404,99 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="31">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -440,7 +771,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -448,139 +779,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A2:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="26.85546875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" style="4"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1" style="2"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1" style="5"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" style="2"/>
+    <col min="6" max="6" width="14" customWidth="1" style="2"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1" style="2"/>
+    <col min="8" max="8" width="12.140625" customWidth="1" style="2"/>
+    <col min="9" max="9" bestFit="1" width="11.28515625" customWidth="1" style="2"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1" style="2"/>
+    <col min="11" max="11" bestFit="1" width="15.85546875" customWidth="1" style="2"/>
+    <col min="12" max="12" bestFit="1" width="17.7109375" customWidth="1" style="2"/>
+    <col min="13" max="13" bestFit="1" width="23.28515625" customWidth="1" style="2"/>
+    <col min="14" max="14" bestFit="1" width="14.5703125" customWidth="1" style="2"/>
+    <col min="15" max="15" bestFit="1" width="14.140625" customWidth="1" style="2"/>
+    <col min="16" max="16" bestFit="1" width="11.85546875" customWidth="1" style="2"/>
+    <col min="17" max="17" bestFit="1" width="19.42578125" customWidth="1" style="2"/>
+    <col min="18" max="18" bestFit="1" width="19" customWidth="1" style="2"/>
+    <col min="19" max="19" width="9.140625" customWidth="1" style="2"/>
+    <col min="20" max="20" bestFit="1" width="16.42578125" customWidth="1" style="2"/>
+    <col min="21" max="21" bestFit="1" width="13.42578125" customWidth="1" style="2"/>
+    <col min="22" max="22" width="12.85546875" customWidth="1" style="2"/>
+    <col min="23" max="23" width="26.85546875" customWidth="1" style="2"/>
+    <col min="24" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="2">
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+    </row>
+    <row r="4" ht="17.25">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" ht="33.75" s="3" customFormat="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="D5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+    <row r="6">
+      <c r="B6" s="18"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="13"/>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>21</v>
-      </c>
+    <row r="7">
+      <c r="B7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="20"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="15"/>
+    </row>
+    <row r="10" ht="17.25">
+      <c r="B10" s="22"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="17"/>
+    </row>
+    <row r="12">
+      <c r="U12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+    </row>
+    <row r="13">
+      <c r="U13" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+  <mergeCells>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B3:W3"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="U13:W13"/>
   </mergeCells>
   <pageMargins left="0.55069444444444449" right="0.2361111111111111" top="0.47222222222222221" bottom="0.35416666666666669" header="0.31458333333333333" footer="0.27500000000000002"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -594,7 +1171,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>

--- a/NiTiErp/wwwroot/export-files/SucKhoe.xlsx
+++ b/NiTiErp/wwwroot/export-files/SucKhoe.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>POWACO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t/>
   </si>
   <si>
     <t>DANH SÁCH NHÂN VIÊN KHÁM SỨC KHỎE</t>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Nguyễn hoàng555555555</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Nam</t>
@@ -1021,64 +1018,64 @@
         <v>33</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="27" t="s">
-        <v>36</v>
-      </c>
       <c r="H8" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="T8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="U8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" s="27" t="s">
-        <v>38</v>
-      </c>
       <c r="W8" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1131,14 +1128,14 @@
     </row>
     <row r="12">
       <c r="U12" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V12" s="25"/>
       <c r="W12" s="25"/>
     </row>
     <row r="13">
       <c r="U13" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V13" s="24"/>
       <c r="W13" s="24"/>

--- a/NiTiErp/wwwroot/export-files/SucKhoe.xlsx
+++ b/NiTiErp/wwwroot/export-files/SucKhoe.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>POWACO</t>
   </si>
   <si>
     <t>DANH SÁCH NHÂN VIÊN KHÁM SỨC KHỎE</t>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Tên</t>
+  </si>
+  <si>
+    <t>Xí nghiệp</t>
   </si>
   <si>
     <t>Phòng</t>
@@ -106,28 +109,16 @@
     <t>Nữ</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Loại 1</t>
-  </si>
-  <si>
-    <t>Nguyễn hoàng555555555</t>
-  </si>
-  <si>
-    <t>Nam</t>
+    <t>3.00</t>
   </si>
   <si>
     <t>4.00</t>
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>Loại 2</t>
@@ -768,7 +759,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -776,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W13"/>
+  <dimension ref="A2:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -787,27 +778,28 @@
     <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
     <col min="2" max="2" width="8.28515625" customWidth="1" style="4"/>
     <col min="3" max="3" width="43.28515625" customWidth="1" style="2"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1" style="5"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" style="2"/>
-    <col min="6" max="6" width="14" customWidth="1" style="2"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1" style="2"/>
-    <col min="8" max="8" width="12.140625" customWidth="1" style="2"/>
-    <col min="9" max="9" bestFit="1" width="11.28515625" customWidth="1" style="2"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1" style="2"/>
-    <col min="11" max="11" bestFit="1" width="15.85546875" customWidth="1" style="2"/>
-    <col min="12" max="12" bestFit="1" width="17.7109375" customWidth="1" style="2"/>
-    <col min="13" max="13" bestFit="1" width="23.28515625" customWidth="1" style="2"/>
-    <col min="14" max="14" bestFit="1" width="14.5703125" customWidth="1" style="2"/>
-    <col min="15" max="15" bestFit="1" width="14.140625" customWidth="1" style="2"/>
-    <col min="16" max="16" bestFit="1" width="11.85546875" customWidth="1" style="2"/>
-    <col min="17" max="17" bestFit="1" width="19.42578125" customWidth="1" style="2"/>
-    <col min="18" max="18" bestFit="1" width="19" customWidth="1" style="2"/>
-    <col min="19" max="19" width="9.140625" customWidth="1" style="2"/>
-    <col min="20" max="20" bestFit="1" width="16.42578125" customWidth="1" style="2"/>
-    <col min="21" max="21" bestFit="1" width="13.42578125" customWidth="1" style="2"/>
-    <col min="22" max="22" width="12.85546875" customWidth="1" style="2"/>
-    <col min="23" max="23" width="26.85546875" customWidth="1" style="2"/>
-    <col min="24" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1" style="2"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1" style="5"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1" style="2"/>
+    <col min="7" max="7" width="14" customWidth="1" style="2"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1" style="2"/>
+    <col min="9" max="9" width="12.140625" customWidth="1" style="2"/>
+    <col min="10" max="10" bestFit="1" width="11.28515625" customWidth="1" style="2"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1" style="2"/>
+    <col min="12" max="12" bestFit="1" width="15.85546875" customWidth="1" style="2"/>
+    <col min="13" max="13" bestFit="1" width="17.7109375" customWidth="1" style="2"/>
+    <col min="14" max="14" bestFit="1" width="23.28515625" customWidth="1" style="2"/>
+    <col min="15" max="15" bestFit="1" width="14.5703125" customWidth="1" style="2"/>
+    <col min="16" max="16" bestFit="1" width="14.140625" customWidth="1" style="2"/>
+    <col min="17" max="17" bestFit="1" width="11.85546875" customWidth="1" style="2"/>
+    <col min="18" max="18" bestFit="1" width="19.42578125" customWidth="1" style="2"/>
+    <col min="19" max="19" bestFit="1" width="19" customWidth="1" style="2"/>
+    <col min="20" max="20" width="9.140625" customWidth="1" style="2"/>
+    <col min="21" max="21" bestFit="1" width="16.42578125" customWidth="1" style="2"/>
+    <col min="22" max="22" bestFit="1" width="13.42578125" customWidth="1" style="2"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1" style="2"/>
+    <col min="24" max="24" width="26.85546875" customWidth="1" style="2"/>
+    <col min="25" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -840,6 +832,7 @@
       <c r="U3" s="24"/>
       <c r="V3" s="24"/>
       <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
     </row>
     <row r="4" ht="17.25">
       <c r="B4" s="24"/>
@@ -848,6 +841,7 @@
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" ht="33.75" s="3" customFormat="1">
       <c r="A5" s="11"/>
@@ -860,7 +854,7 @@
       <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -911,18 +905,21 @@
       <c r="U5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="9" t="s">
         <v>23</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="18"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -940,212 +937,148 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
-      <c r="W6" s="13"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="13"/>
     </row>
     <row r="7">
       <c r="B7" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="D7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="29" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>30</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J7" s="27"/>
       <c r="K7" s="27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S7" s="27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T7" s="27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U7" s="27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" s="30" t="s">
         <v>32</v>
-      </c>
-      <c r="W7" s="30" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="27" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="15"/>
+    </row>
+    <row r="9" ht="17.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="11">
+      <c r="V11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="R8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="V8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="W8" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="20"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="15"/>
-    </row>
-    <row r="10" ht="17.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="17"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
     </row>
     <row r="12">
-      <c r="U12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-    </row>
-    <row r="13">
-      <c r="U13" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
+      <c r="V12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B3:W3"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B3:X3"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="V12:X12"/>
   </mergeCells>
   <pageMargins left="0.55069444444444449" right="0.2361111111111111" top="0.47222222222222221" bottom="0.35416666666666669" header="0.31458333333333333" footer="0.27500000000000002"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait"/>
